--- a/natmiOut/OldD0/LR-pairs_lrc2p/Cd34-Sele.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Cd34-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,57 +528,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.8872729943186</v>
+        <v>120.2294996666667</v>
       </c>
       <c r="H2">
-        <v>41.8872729943186</v>
+        <v>360.688499</v>
       </c>
       <c r="I2">
-        <v>0.1141665969451434</v>
+        <v>0.2682304996487195</v>
       </c>
       <c r="J2">
-        <v>0.1141665969451434</v>
+        <v>0.2682304996487195</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.60398961687429</v>
+        <v>7.879565666666667</v>
       </c>
       <c r="N2">
-        <v>6.60398961687429</v>
+        <v>23.638697</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9977172793687663</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9977172793687664</v>
       </c>
       <c r="Q2">
-        <v>276.6231159336589</v>
+        <v>947.3562376939783</v>
       </c>
       <c r="R2">
-        <v>276.6231159336589</v>
+        <v>8526.206139245804</v>
       </c>
       <c r="S2">
-        <v>0.1141665969451434</v>
+        <v>0.2676182043532453</v>
       </c>
       <c r="T2">
-        <v>0.1141665969451434</v>
+        <v>0.2676182043532453</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>318.120399455974</v>
+        <v>120.2294996666667</v>
       </c>
       <c r="H3">
-        <v>318.120399455974</v>
+        <v>360.688499</v>
       </c>
       <c r="I3">
-        <v>0.8670586750692584</v>
+        <v>0.2682304996487195</v>
       </c>
       <c r="J3">
-        <v>0.8670586750692584</v>
+        <v>0.2682304996487195</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>6.60398961687429</v>
+        <v>0.018028</v>
       </c>
       <c r="N3">
-        <v>6.60398961687429</v>
+        <v>0.054084</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.002282720631233623</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.002282720631233623</v>
       </c>
       <c r="Q3">
-        <v>2100.863814923154</v>
+        <v>2.167497419990667</v>
       </c>
       <c r="R3">
-        <v>2100.863814923154</v>
+        <v>19.507476779916</v>
       </c>
       <c r="S3">
-        <v>0.8670586750692584</v>
+        <v>0.0006122952954742353</v>
       </c>
       <c r="T3">
-        <v>0.8670586750692584</v>
+        <v>0.0006122952954742353</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,52 +652,238 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.8883734609756</v>
+        <v>320.4798073333333</v>
       </c>
       <c r="H4">
-        <v>6.8883734609756</v>
+        <v>961.4394219999999</v>
       </c>
       <c r="I4">
-        <v>0.01877472798559818</v>
+        <v>0.7149864142051173</v>
       </c>
       <c r="J4">
-        <v>0.01877472798559818</v>
+        <v>0.7149864142051173</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.60398961687429</v>
+        <v>7.879565666666667</v>
       </c>
       <c r="N4">
-        <v>6.60398961687429</v>
+        <v>23.638697</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9977172793687663</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9977172793687664</v>
       </c>
       <c r="Q4">
-        <v>45.49074681343528</v>
+        <v>2525.241686723682</v>
       </c>
       <c r="R4">
-        <v>45.49074681343528</v>
+        <v>22727.17518051313</v>
       </c>
       <c r="S4">
-        <v>0.01877472798559818</v>
+        <v>0.7133542999663595</v>
       </c>
       <c r="T4">
-        <v>0.01877472798559818</v>
+        <v>0.7133542999663596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>320.4798073333333</v>
+      </c>
+      <c r="H5">
+        <v>961.4394219999999</v>
+      </c>
+      <c r="I5">
+        <v>0.7149864142051173</v>
+      </c>
+      <c r="J5">
+        <v>0.7149864142051173</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.018028</v>
+      </c>
+      <c r="N5">
+        <v>0.054084</v>
+      </c>
+      <c r="O5">
+        <v>0.002282720631233623</v>
+      </c>
+      <c r="P5">
+        <v>0.002282720631233623</v>
+      </c>
+      <c r="Q5">
+        <v>5.777609966605333</v>
+      </c>
+      <c r="R5">
+        <v>51.99848969944799</v>
+      </c>
+      <c r="S5">
+        <v>0.00163211423875777</v>
+      </c>
+      <c r="T5">
+        <v>0.00163211423875777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>7.522716666666668</v>
+      </c>
+      <c r="H6">
+        <v>22.56815</v>
+      </c>
+      <c r="I6">
+        <v>0.01678308614616306</v>
+      </c>
+      <c r="J6">
+        <v>0.01678308614616306</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>7.879565666666667</v>
+      </c>
+      <c r="N6">
+        <v>23.638697</v>
+      </c>
+      <c r="O6">
+        <v>0.9977172793687663</v>
+      </c>
+      <c r="P6">
+        <v>0.9977172793687664</v>
+      </c>
+      <c r="Q6">
+        <v>59.27573996672779</v>
+      </c>
+      <c r="R6">
+        <v>533.48165970055</v>
+      </c>
+      <c r="S6">
+        <v>0.01674477504916145</v>
+      </c>
+      <c r="T6">
+        <v>0.01674477504916145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>7.522716666666668</v>
+      </c>
+      <c r="H7">
+        <v>22.56815</v>
+      </c>
+      <c r="I7">
+        <v>0.01678308614616306</v>
+      </c>
+      <c r="J7">
+        <v>0.01678308614616306</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.018028</v>
+      </c>
+      <c r="N7">
+        <v>0.054084</v>
+      </c>
+      <c r="O7">
+        <v>0.002282720631233623</v>
+      </c>
+      <c r="P7">
+        <v>0.002282720631233623</v>
+      </c>
+      <c r="Q7">
+        <v>0.1356195360666667</v>
+      </c>
+      <c r="R7">
+        <v>1.2205758246</v>
+      </c>
+      <c r="S7">
+        <v>3.831109700161763E-05</v>
+      </c>
+      <c r="T7">
+        <v>3.831109700161763E-05</v>
       </c>
     </row>
   </sheetData>
